--- a/ESG Topics for products VA.xlsx
+++ b/ESG Topics for products VA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vaudoise-my.sharepoint.com/personal/jsalamin_vaudoise_ch/Documents/Documents de Travail Jeanne/Projet de Master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{DB02BCC0-5306-4B24-BE6E-A75141C370B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586239E5-EAC6-4419-8656-5C77E69A6194}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{DB02BCC0-5306-4B24-BE6E-A75141C370B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3AC567-2AE4-4BAE-A878-2D249EBBBAB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{44E61A10-722E-47B4-BC8A-F6E31EAAEFD3}"/>
   </bookViews>
@@ -59,12 +59,6 @@
     <t>Thème</t>
   </si>
   <si>
-    <t>Évolution du risque</t>
-  </si>
-  <si>
-    <t>Demande</t>
-  </si>
-  <si>
     <t>Besoin d’innovation</t>
   </si>
   <si>
@@ -104,7 +98,13 @@
     <t>Regulatory Complexity</t>
   </si>
   <si>
-    <t xml:space="preserve">Catégorie </t>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Impact produit (risques)</t>
+  </si>
+  <si>
+    <t>Demande client</t>
   </si>
 </sst>
 </file>
@@ -173,6 +173,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,34 +498,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F42340-CDB5-41F4-B0C7-DD88542A6B8B}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -535,20 +541,20 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2">
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(C2:G2)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -556,26 +562,26 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H13" si="0">SUM(C3:G3)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -583,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
@@ -622,14 +628,14 @@
         <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -640,23 +646,23 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -664,26 +670,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -691,26 +697,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -718,26 +724,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -745,26 +751,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -772,26 +778,26 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -799,26 +805,26 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
         <v>20</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -826,26 +832,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
